--- a/src/test/resources/data/HerokupData.xlsx
+++ b/src/test/resources/data/HerokupData.xlsx
@@ -53,7 +53,7 @@
     <t>S</t>
   </si>
   <si>
-    <t>leema11@gmail.com</t>
+    <t>leema12@gmail.com</t>
   </si>
   <si>
     <t>Leema.123</t>
@@ -1309,7 +1309,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="leema11@gmail.com" tooltip="mailto:leema11@gmail.com"/>
+    <hyperlink ref="C2" r:id="rId1" display="leema12@gmail.com" tooltip="mailto:leema12@gmail.com"/>
     <hyperlink ref="C3" r:id="rId2" display="leema5@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
